--- a/premise/data/additional_inventories/lci-electrolyzer-PEM-eol.xlsx
+++ b/premise/data/additional_inventories/lci-electrolyzer-PEM-eol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="871" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA78346-E2E2-4D41-B07F-7228CEEA4D6D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="106_{B0E35C93-BA7E-4C0D-896E-9021B9175B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C52B66E8-3BDC-4463-97DC-1AD510C72144}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electrolyzer_PEM_EOL" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,26 +31,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="117">
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>electrolyzer_PEM_EoL</t>
+  </si>
   <si>
     <t>Activity</t>
   </si>
   <si>
+    <t>treatment of used electrolyzer Stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>81% recovery rate is assumed according to Uekert (2024). For 1 unit of stack, we need 16kg TFE (used for PFSA)</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>RER</t>
+  </si>
+  <si>
     <t>production amount</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
+    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information</t>
+  </si>
+  <si>
     <t>reference product</t>
   </si>
   <si>
+    <t>tetrafluoroethylene</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -75,109 +96,277 @@
     <t>categories</t>
   </si>
   <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
     <t>production</t>
   </si>
   <si>
+    <t xml:space="preserve">treatment of used electrolyzer Stack, PGM recovery, 1MWe, PEM, hydrometallurgy </t>
+  </si>
+  <si>
+    <t>87% recovery rate is assumed according to Uekert (2024). For 1 unit of stack we need 0.738kg iridium</t>
+  </si>
+  <si>
+    <t>iridium</t>
+  </si>
+  <si>
+    <t>85% recovery rate is assumed according to Uekert (2024). For 1 unit of stack, we need 0.304kg platinum</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>treatment of used electrolyzer Stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>LCI data from Table S2 and S6 according to the Supplementary Information of Uekert et al. (2024)</t>
+  </si>
+  <si>
+    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information Table S6</t>
+  </si>
+  <si>
+    <t>used electrolyzer stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>for 1 unit of stack, modeled according to "electrolyzer production, 1MWe, PEM, Stack"</t>
+  </si>
+  <si>
     <t>technosphere</t>
   </si>
   <si>
+    <t>waste PFSA membrane from used electrolyzer stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t>For 1MWe electrolyzer stack. The treatment is modeled for 5.36kg recycled output. We have 16kg PFSA as input and 81% recycling rate --&gt; 16*0.81 = 12.96kg recycled output.  So we would need 12.96/5.36 = 2.417 unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment of used electrolyzer Stack, PGM, 1MWe, PEM, hydrometallurgy </t>
+  </si>
+  <si>
+    <t>waste PGM from used electrolyzer stack, 1MWe, PEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 1MWe electrolyzer stack. The treatment is modeled for 0.605kg recycled output.  We have 0.738kg iridium as input and 87% recycling rate --&gt; 0.738 × 0.87 = 0.642 kg and 0.304kg platinum as input and 85% recycling rate --&gt; 0.304kg * 0.87% = 0.259kg. In total we have 0.642 + 0.259 = 0.901kg recycled output. So we would need 0.901/0.605 = 1.489 unit.  </t>
+  </si>
+  <si>
+    <t>treatment of hazardous waste, hazardous waste incineration</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>hazardous waste, for incineration</t>
+  </si>
+  <si>
+    <t>carbon black, potassium hydroxide, ruthenium, titanium. With conventional titanium, we could recycle 91% of titanium but no data available in Ecoinvent</t>
+  </si>
+  <si>
+    <t>market for waste steel</t>
+  </si>
+  <si>
+    <t>waste steel</t>
+  </si>
+  <si>
+    <t>taken from "treatment of electrolyzer stack, 1MWe, PEM"</t>
+  </si>
+  <si>
+    <t>market for waste aluminium</t>
+  </si>
+  <si>
+    <t>waste aluminium</t>
+  </si>
+  <si>
+    <t>market for waste copper</t>
+  </si>
+  <si>
+    <t>waste copper</t>
+  </si>
+  <si>
+    <t>market for waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>market for waste rubber, unspecified</t>
+  </si>
+  <si>
+    <t>waste rubber, unspecified</t>
+  </si>
+  <si>
+    <t>LCI data from Table S6 according to the Supplementary Information of Uekert et al. (2024)</t>
+  </si>
+  <si>
+    <t>For 1MWe electrolyzer stack. The treatment is modeled for 1kg of PFSA as output for PEMWE. For PFSA by solvent dissolution use Table S6. The “Recycling process” block there is per 1 kg recycled PFSA. The “Overall stack” block shows a 1 MW PEMWE needs 5.36 kg recycled PFSA. Multiply every flow in the Table S6 “Recycling process” block by 5.36.</t>
+  </si>
+  <si>
+    <t>market for water, deionised</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table 6 from Supplementary Information, for process water</t>
+  </si>
+  <si>
+    <t>market for 2-butanol</t>
+  </si>
+  <si>
+    <t>2-butanol</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table 6 from Supplementary Information, instead of butanol</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>kilowatt hour</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table 6 from Supplementary Information</t>
+  </si>
+  <si>
+    <t>steam production, in chemical industry</t>
+  </si>
+  <si>
+    <t>steam, in chemical industry</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
-    <t>kilowatt hour</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
     <t>cubic meter</t>
   </si>
   <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>Organic carbon</t>
+  </si>
+  <si>
+    <t>water::ground-</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>LCI data from Table S2 according to the Supplementary Information of Uekert et al. (2024)</t>
+  </si>
+  <si>
+    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information Table S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 1MWe electrolyzer stack. The treatment is modeled for 1kg of output consists of 36.8 wt% Pt, 63.2 wt% Ir for PEMWE. But the recycling process is given for 1kg output. For Pt and Ir by hydrometallurgy use Table S2. A 1 MW PEMWE needs 0.223 kg recycled Pt and 0.382 kg recycled Ir. That is 0.605 kg of recycled product in total. Multiply every “Recycling process” flow in Table S2 by 0.605. </t>
+  </si>
+  <si>
+    <t>cyanex production</t>
+  </si>
+  <si>
+    <t>cyanex</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table S2 from Supplementary Information, for process water</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table S2 from Supplementary Information, for cooling water</t>
+  </si>
+  <si>
+    <t>market for hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>Uekert 2024, Table S2 from Supplementary Information</t>
+  </si>
+  <si>
+    <t>market for hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>chlor-alkali electrolysis, average production</t>
+  </si>
+  <si>
     <t>sodium hydroxide, without water, in 50% solution state</t>
   </si>
   <si>
+    <t>market for ammonium chloride</t>
+  </si>
+  <si>
     <t>GLO</t>
   </si>
   <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>market for water, deionised</t>
-  </si>
-  <si>
-    <t>treatment of wastewater, average, wastewater treatment</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
+    <t>ammonium chloride</t>
+  </si>
+  <si>
+    <t>market for toluene, liquid</t>
+  </si>
+  <si>
+    <t>toluene, liquid</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>Solids, inorganic</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>natural resource::in ground</t>
+  </si>
+  <si>
+    <t>LCI data from Figure 3 according to Stropnik et al. (2019)</t>
   </si>
   <si>
     <t>Stropnik et al. (2019). Critical materials in PEMFC systems and a LCA analysis for the potential reduction of environmental impacts with EoL strategies</t>
   </si>
   <si>
-    <t>platinum</t>
-  </si>
-  <si>
-    <t>LCI data from Figure 3 according to Stropnik et al. (2019)</t>
-  </si>
-  <si>
-    <t>cyanex production</t>
-  </si>
-  <si>
-    <t>cyanex</t>
-  </si>
-  <si>
-    <t>market for hydrogen peroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>market for hydrochloric acid, without water, in 30% solution state</t>
-  </si>
-  <si>
-    <t>hydrochloric acid, without water, in 30% solution state</t>
-  </si>
-  <si>
-    <t>chlor-alkali electrolysis, average production</t>
-  </si>
-  <si>
-    <t>market for ammonium chloride</t>
-  </si>
-  <si>
-    <t>ammonium chloride</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>treatment of hazardous waste, hazardous waste incineration</t>
-  </si>
-  <si>
-    <t>hazardous waste, for incineration</t>
+    <t>same cyanex in the fuel cell is used here</t>
   </si>
   <si>
     <t>market for phosphorus oxychloride</t>
@@ -193,159 +382,6 @@
   </si>
   <si>
     <t>2-methylpropane is replaced with isohexane</t>
-  </si>
-  <si>
-    <t>electrolyzer_PEM_EoL</t>
-  </si>
-  <si>
-    <t>treatment of used electrolyzer stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</t>
-  </si>
-  <si>
-    <t>81% recovery rate is assumed according to Uekert (2024). For 1 unit of stack, we need 16kg TFE (used for PFSA)</t>
-  </si>
-  <si>
-    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information</t>
-  </si>
-  <si>
-    <t>tetrafluoroethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment of used electrolyzer stack, PGM recovery, 1MWe, PEM, hydrometallurgy </t>
-  </si>
-  <si>
-    <t>87% recovery rate is assumed according to Uekert (2024). For 1 unit of stack we need 0.738kg iridium</t>
-  </si>
-  <si>
-    <t>iridium</t>
-  </si>
-  <si>
-    <t>85% recovery rate is assumed according to Uekert (2024). For 1 unit of stack, we need 0.304kg platinum</t>
-  </si>
-  <si>
-    <t>treatment of used electrolyzer stack, 1MWe, PEM</t>
-  </si>
-  <si>
-    <t>LCI data from Table S2 and S6 according to the Supplementary Information of Uekert et al. (2024)</t>
-  </si>
-  <si>
-    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information Table S6</t>
-  </si>
-  <si>
-    <t>used electrolyzer stack, 1MWe, PEM</t>
-  </si>
-  <si>
-    <t>for 1 unit of stack, modeled according to "electrolyzer production, 1MWe, PEM, Stack"</t>
-  </si>
-  <si>
-    <t>waste PFSA membrane from used electrolyzer stack, 1MWe, PEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment of used electrolyzer stack, PGM, 1MWe, PEM, hydrometallurgy </t>
-  </si>
-  <si>
-    <t>waste PGM from used electrolyzer stack, 1MWe, PEM</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>carbon black, potassium hydroxide, ruthenium, titanium. With conventional titanium, we could recycle 91% of titanium but no data available in Ecoinvent</t>
-  </si>
-  <si>
-    <t>LCI data from Table S6 according to the Supplementary Information of Uekert et al. (2024)</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table 6 from Supplementary Information, for process water</t>
-  </si>
-  <si>
-    <t>market for 2-butanol</t>
-  </si>
-  <si>
-    <t>2-butanol</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table 6 from Supplementary Information, instead of butanol</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table 6 from Supplementary Information</t>
-  </si>
-  <si>
-    <t>steam production, in chemical industry</t>
-  </si>
-  <si>
-    <t>steam, in chemical industry</t>
-  </si>
-  <si>
-    <t>Organic carbon</t>
-  </si>
-  <si>
-    <t>biosphere</t>
-  </si>
-  <si>
-    <t>LCI data from Table S2 according to the Supplementary Information of Uekert et al. (2024)</t>
-  </si>
-  <si>
-    <t>Uekert et al. (2024). Electrolyzer and fuel cell recycling for a circular hydrogen economy, Supplementary Information Table S2</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table S2 from Supplementary Information, for process water</t>
-  </si>
-  <si>
-    <t>market for tap water</t>
-  </si>
-  <si>
-    <t>tap water</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table S2 from Supplementary Information, for cooling water</t>
-  </si>
-  <si>
-    <t>Uekert 2024, Table S2 from Supplementary Information</t>
-  </si>
-  <si>
-    <t>market for toluene, liquid</t>
-  </si>
-  <si>
-    <t>toluene, liquid</t>
-  </si>
-  <si>
-    <t>market for hydrogen, gaseous, low pressure</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, low pressure</t>
-  </si>
-  <si>
-    <t>Solids, inorganic</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>natural resource::in ground</t>
-  </si>
-  <si>
-    <t>same cyanex in the fuel cell is used here</t>
-  </si>
-  <si>
-    <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>water::ground-</t>
-  </si>
-  <si>
-    <t>For 1MWe electrolyzer stack. The treatment is modeled for 5.36kg recycled output. We have 16kg PFSA as input and 81% recycling rate --&gt; 16*0.81 = 12.96kg recycled output.  So we would need 12.96/5.36 = 2.417 unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For 1MWe electrolyzer stack. The treatment is modeled for 0.605kg recycled output.  We have 0.738kg iridium as input and 87% recycling rate --&gt; 0.738 × 0.87 = 0.642 kg and 0.304kg platinum as input and 85% recycling rate --&gt; 0.304kg * 0.87% = 0.259kg. In total we have 0.642 + 0.259 = 0.901kg recycled output. So we would need 0.901/0.605 = 1.489 unit.  </t>
-  </si>
-  <si>
-    <t>For 1MWe electrolyzer stack. The treatment is modeled for 1kg of PFSA as output for PEMWE. For PFSA by solvent dissolution use Table S6. The “Recycling process” block there is per 1 kg recycled PFSA. The “Overall stack” block shows a 1 MW PEMWE needs 5.36 kg recycled PFSA. Multiply every flow in the Table S6 “Recycling process” block by 5.36.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For 1MWe electrolyzer stack. The treatment is modeled for 1kg of output consists of 36.8 wt% Pt, 63.2 wt% Ir for PEMWE. But the recycling process is given for 1kg output. For Pt and Ir by hydrometallurgy use Table S2. A 1 MW PEMWE needs 0.223 kg recycled Pt and 0.382 kg recycled Ir. That is 0.605 kg of recycled product in total. Multiply every “Recycling process” flow in Table S2 by 0.605. </t>
   </si>
 </sst>
 </file>
@@ -356,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,44 +786,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10E08E9-19A6-4A5C-8A55-82D02DC0242A}">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="42" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="65.1796875" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -805,12 +841,12 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -827,12 +863,12 @@
       <c r="O5" s="8"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -849,9 +885,9 @@
       <c r="O6" s="8"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -871,12 +907,12 @@
       <c r="O7" s="8"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -893,12 +929,12 @@
       <c r="O8" s="8"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -915,12 +951,12 @@
       <c r="O9" s="8"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -938,12 +974,12 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -961,9 +997,9 @@
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -982,57 +1018,57 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.6">
       <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="46.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="46.5">
       <c r="A14" s="10" t="str">
         <f>B4</f>
-        <v>treatment of used electrolyzer stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</v>
+        <v>treatment of used electrolyzer Stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</v>
       </c>
       <c r="B14" s="8">
         <f>160000/160000</f>
@@ -1043,14 +1079,14 @@
         <v>RER</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1063,7 +1099,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1082,12 +1118,12 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.6">
       <c r="A16" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1105,12 +1141,12 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1127,12 +1163,12 @@
       <c r="O17" s="8"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1149,9 +1185,9 @@
       <c r="O18" s="8"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -1171,12 +1207,12 @@
       <c r="O19" s="8"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A20" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1193,12 +1229,12 @@
       <c r="O20" s="8"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A21" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1215,12 +1251,12 @@
       <c r="O21" s="8"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A22" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1238,12 +1274,12 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A23" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1261,9 +1297,9 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A24" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1282,57 +1318,57 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15.6">
       <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30.95">
       <c r="A26" s="10" t="str">
         <f>B16</f>
-        <v xml:space="preserve">treatment of used electrolyzer stack, PGM recovery, 1MWe, PEM, hydrometallurgy </v>
+        <v xml:space="preserve">treatment of used electrolyzer Stack, PGM recovery, 1MWe, PEM, hydrometallurgy </v>
       </c>
       <c r="B26" s="8">
         <f>160000/160000</f>
@@ -1343,14 +1379,14 @@
         <v>RER</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1363,7 +1399,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15.6">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1382,12 +1418,12 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.6">
       <c r="A28" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1405,12 +1441,12 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A29" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1427,12 +1463,12 @@
       <c r="O29" s="8"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A30" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1449,9 +1485,9 @@
       <c r="O30" s="8"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A31" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -1471,12 +1507,12 @@
       <c r="O31" s="8"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A32" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1493,12 +1529,12 @@
       <c r="O32" s="8"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A33" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1515,12 +1551,12 @@
       <c r="O33" s="8"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15.6">
       <c r="A34" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1536,12 +1572,12 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="15.6">
       <c r="A35" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1557,9 +1593,9 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.6">
       <c r="A36" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1576,57 +1612,57 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15.6">
       <c r="A37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="H37" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="30.95">
       <c r="A38" s="10" t="str">
         <f>B28</f>
-        <v xml:space="preserve">treatment of used electrolyzer stack, PGM recovery, 1MWe, PEM, hydrometallurgy </v>
+        <v xml:space="preserve">treatment of used electrolyzer Stack, PGM recovery, 1MWe, PEM, hydrometallurgy </v>
       </c>
       <c r="B38" s="8">
         <f>160000/160000</f>
@@ -1637,11 +1673,11 @@
         <v>RER</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G38" s="8" t="str">
         <f>B33</f>
@@ -1658,7 +1694,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1677,12 +1713,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15.6">
       <c r="A40" s="15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -1700,12 +1736,12 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15.6">
       <c r="A41" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -1723,12 +1759,12 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A42" s="16" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -1745,9 +1781,9 @@
       <c r="O42" s="16"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A43" s="16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B43" s="16">
         <v>-1</v>
@@ -1768,12 +1804,12 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A44" s="16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1791,12 +1827,12 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A45" s="16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -1814,12 +1850,12 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15.6">
       <c r="A46" s="16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -1835,12 +1871,12 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
     </row>
-    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A47" s="16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -1858,9 +1894,9 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A48" s="15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1879,59 +1915,59 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.6">
       <c r="A50" s="16" t="str">
         <f>B40</f>
-        <v>treatment of used electrolyzer stack, 1MWe, PEM</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, PEM</v>
       </c>
       <c r="B50" s="16">
         <v>-1</v>
@@ -1946,14 +1982,14 @@
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G50" s="16" t="str">
         <f>B45</f>
         <v>used electrolyzer stack, 1MWe, PEM</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -1963,28 +1999,28 @@
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
     </row>
-    <row r="51" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="48.75">
       <c r="A51" s="17" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B51" s="18">
         <v>-2.4169999999999998</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -1996,28 +2032,28 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="81">
       <c r="A52" s="17" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B52" s="19">
         <v>-1.4890000000000001</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -2029,28 +2065,28 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="30.95">
       <c r="A53" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="18">
-        <v>-209.45</v>
+        <v>-618.947</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -2060,130 +2096,171 @@
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
     </row>
-    <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P54" s="1"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="54" spans="1:17" ht="15.6">
+      <c r="A54" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="18">
+        <v>-100</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.6">
+      <c r="A55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="18">
+        <v>-27</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.6">
+      <c r="A56" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="18">
+        <v>-4.5</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+      <c r="H56" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.6">
+      <c r="A57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="18">
+        <v>-16</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.6">
+      <c r="A58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="18">
+        <v>-4.8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.6">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.6">
+      <c r="A60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-    </row>
-    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2198,13 +2275,15 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
-    </row>
-    <row r="61" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A61" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2219,15 +2298,14 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-    </row>
-    <row r="62" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A62" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2245,11 +2323,13 @@
       <c r="P62"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="5"/>
+    <row r="63" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="5">
+        <v>-1</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2266,80 +2346,42 @@
       <c r="P63"/>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+    </row>
+    <row r="65" spans="1:17" ht="15.6">
+      <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="str">
-        <f>B55</f>
-        <v>treatment of used electrolyzer stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</v>
-      </c>
-      <c r="B65" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C65" s="5" t="str">
-        <f>B57</f>
-        <v>RER</v>
-      </c>
-      <c r="D65" s="5" t="str">
-        <f>B62</f>
-        <v>unit</v>
-      </c>
+      <c r="B65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="5" t="str">
-        <f>B60</f>
-        <v>waste PFSA membrane from used electrolyzer stack, 1MWe, PEM</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -2347,33 +2389,20 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="6">
-        <f>5.36*11.4</f>
-        <v>61.104000000000006</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="66" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2381,33 +2410,22 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="6">
-        <f>5.36*3.09</f>
-        <v>16.5624</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="P66"/>
+      <c r="Q66"/>
+    </row>
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -2415,33 +2433,20 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="6">
-        <f>5.36*0.467</f>
-        <v>2.5031200000000005</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="P67"/>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2449,66 +2454,82 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="6">
-        <f>5.36*29.6</f>
-        <v>158.65600000000001</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="P68"/>
+      <c r="Q68"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.6">
+      <c r="A69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="5"/>
-    </row>
-    <row r="70" spans="1:17" s="20" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="6">
-        <f>5.36*-0.011</f>
-        <v>-5.8959999999999999E-2</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="O69" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="62.1">
+      <c r="A70" s="9" t="str">
+        <f>B60</f>
+        <v>treatment of used electrolyzer Stack, PFSA membrane recovery, 1MWe, PEM, solvent dissolution</v>
+      </c>
+      <c r="B70" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f>B62</f>
+        <v>RER</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f>B67</f>
+        <v>unit</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="G70" s="5" t="str">
+        <f>B65</f>
+        <v>waste PFSA membrane from used electrolyzer stack, 1MWe, PEM</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2517,30 +2538,32 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>81</v>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" ht="15.6">
+      <c r="A71" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B71" s="6">
-        <f>5.36*3.09</f>
-        <v>16.5624</v>
-      </c>
-      <c r="C71" s="5"/>
+        <f>5.36*11.4</f>
+        <v>61.104000000000006</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H71" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -2549,24 +2572,67 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-    </row>
-    <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P72" s="1"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="P71" s="1"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" s="20" customFormat="1" ht="15.6">
+      <c r="A72" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="6">
+        <f>5.36*3.09</f>
+        <v>16.5624</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" s="20" customFormat="1" ht="15.6">
+      <c r="A73" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="B73" s="6">
+        <f>5.36*0.467</f>
+        <v>2.5031200000000005</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -2574,22 +2640,33 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" s="20" customFormat="1" ht="15.6">
+      <c r="A74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <f>5.36*29.6</f>
+        <v>158.65600000000001</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -2597,21 +2674,33 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" s="20" customFormat="1" ht="30.95">
+      <c r="A75" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="6">
+        <f>5.36*-0.011</f>
+        <v>-5.8959999999999999E-2</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -2619,22 +2708,31 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-    </row>
-    <row r="76" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="5">
-        <v>-1</v>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" ht="15.6">
+      <c r="A76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="6">
+        <f>5.36*3.09</f>
+        <v>16.5624</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -2642,38 +2740,17 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-    </row>
-    <row r="77" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-    </row>
-    <row r="78" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>70</v>
+    </row>
+    <row r="77" spans="1:17" ht="15.6">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" ht="15.6">
+      <c r="A78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2688,15 +2765,15 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-    </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A79" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2711,15 +2788,14 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-    </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A80" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2737,11 +2813,13 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:40" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="5"/>
+    <row r="81" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="5">
+        <v>-1</v>
+      </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2758,83 +2836,42 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:40" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="82" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="AN82" s="21"/>
-    </row>
-    <row r="83" spans="1:40" s="2" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="9" t="str">
-        <f>B73</f>
-        <v xml:space="preserve">treatment of used electrolyzer stack, PGM, 1MWe, PEM, hydrometallurgy </v>
-      </c>
-      <c r="B83" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C83" s="5" t="str">
-        <f>B75</f>
-        <v>RER</v>
-      </c>
-      <c r="D83" s="5" t="str">
-        <f>B80</f>
-        <v>unit</v>
-      </c>
+    </row>
+    <row r="83" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="5" t="str">
-        <f>B78</f>
-        <v>waste PGM from used electrolyzer stack, 1MWe, PEM</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -2842,30 +2879,21 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
-      <c r="P83" s="1"/>
-      <c r="AN83" s="21"/>
-    </row>
-    <row r="84" spans="1:40" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="12">
-        <f>8.12*0.605</f>
-        <v>4.9125999999999994</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="P83"/>
+      <c r="Q83"/>
+    </row>
+    <row r="84" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -2874,33 +2902,22 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
-      <c r="P84" s="1"/>
-      <c r="AN84" s="21"/>
-    </row>
-    <row r="85" spans="1:40" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="13">
-        <f>1766*0.605</f>
-        <v>1068.43</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="P84"/>
+      <c r="Q84"/>
+    </row>
+    <row r="85" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -2908,33 +2925,20 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
-      <c r="P85" s="1"/>
-      <c r="AN85" s="21"/>
-    </row>
-    <row r="86" spans="1:40" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="13">
-        <f>0.605*10071</f>
-        <v>6092.9549999999999</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="P85"/>
+      <c r="Q85"/>
+    </row>
+    <row r="86" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -2942,68 +2946,85 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
-      <c r="P86" s="1"/>
-      <c r="S86" s="22"/>
-      <c r="AN86" s="21"/>
-    </row>
-    <row r="87" spans="1:40" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" s="6">
-        <f>0.605*25.7</f>
-        <v>15.548499999999999</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="P86"/>
+      <c r="Q86"/>
+    </row>
+    <row r="87" spans="1:40" s="2" customFormat="1" ht="15.6">
+      <c r="A87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="1"/>
-      <c r="S87" s="22"/>
-      <c r="AN87" s="23"/>
-    </row>
-    <row r="88" spans="1:40" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A88" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B88" s="6">
-        <f>0.605*85.7</f>
-        <v>51.848500000000001</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>9</v>
+      <c r="O87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="AN87" s="21"/>
+    </row>
+    <row r="88" spans="1:40" s="2" customFormat="1" ht="77.45">
+      <c r="A88" s="9" t="str">
+        <f>B78</f>
+        <v xml:space="preserve">treatment of used electrolyzer Stack, PGM, 1MWe, PEM, hydrometallurgy </v>
+      </c>
+      <c r="B88" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C88" s="5" t="str">
+        <f>B80</f>
+        <v>RER</v>
+      </c>
+      <c r="D88" s="5" t="str">
+        <f>B85</f>
+        <v>unit</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="G88" s="5" t="str">
+        <f>B83</f>
+        <v>waste PGM from used electrolyzer stack, 1MWe, PEM</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -3013,31 +3034,30 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AN88" s="21"/>
+    </row>
+    <row r="89" spans="1:40" s="2" customFormat="1" ht="15.6">
       <c r="A89" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="6">
-        <f>0.605*93.9</f>
-        <v>56.8095</v>
+        <v>85</v>
+      </c>
+      <c r="B89" s="12">
+        <f>8.12*0.605</f>
+        <v>4.9125999999999994</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3046,31 +3066,31 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AN89" s="21"/>
+    </row>
+    <row r="90" spans="1:40" s="2" customFormat="1" ht="15.6">
       <c r="A90" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="6">
-        <f>0.605*1.57</f>
-        <v>0.94984999999999997</v>
+        <v>63</v>
+      </c>
+      <c r="B90" s="13">
+        <f>1766*0.605</f>
+        <v>1068.43</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -3080,31 +3100,31 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AN90" s="21"/>
+    </row>
+    <row r="91" spans="1:40" s="2" customFormat="1" ht="15.6">
       <c r="A91" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="6">
-        <f>0.605*48</f>
-        <v>29.04</v>
+        <v>88</v>
+      </c>
+      <c r="B91" s="13">
+        <f>0.605*10071</f>
+        <v>6092.9549999999999</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -3114,31 +3134,32 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>99</v>
+      <c r="S91" s="22"/>
+      <c r="AN91" s="21"/>
+    </row>
+    <row r="92" spans="1:40" s="2" customFormat="1" ht="30.95">
+      <c r="A92" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B92" s="6">
-        <f>0.605*22.6</f>
-        <v>13.673</v>
+        <f>0.605*25.7</f>
+        <v>15.548499999999999</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -3148,31 +3169,32 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:40" ht="31" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
-        <v>32</v>
+      <c r="S92" s="22"/>
+      <c r="AN92" s="23"/>
+    </row>
+    <row r="93" spans="1:40" s="2" customFormat="1" ht="30.95">
+      <c r="A93" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B93" s="6">
-        <f>0.605*-1.81</f>
-        <v>-1.0950500000000001</v>
+        <f>0.605*85.7</f>
+        <v>51.848500000000001</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -3182,31 +3204,30 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:40" ht="31" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>47</v>
+    </row>
+    <row r="94" spans="1:40" ht="15.6">
+      <c r="A94" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B94" s="6">
-        <f>0.605*-11.6</f>
-        <v>-7.0179999999999998</v>
+        <f>0.605*93.9</f>
+        <v>56.8095</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -3218,29 +3239,29 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
-        <v>79</v>
+    <row r="95" spans="1:40" ht="15.6">
+      <c r="A95" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B95" s="6">
-        <f>0.605*210</f>
-        <v>127.05</v>
+        <f>0.605*1.57</f>
+        <v>0.94984999999999997</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -3252,29 +3273,29 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" ht="15.6">
       <c r="A96" s="9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B96" s="6">
-        <f>0.605*0.031</f>
-        <v>1.8755000000000001E-2</v>
+        <f>0.605*48</f>
+        <v>29.04</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G96" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -3286,27 +3307,29 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="9" t="s">
-        <v>94</v>
+    <row r="97" spans="1:17" ht="15.6">
+      <c r="A97" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B97" s="6">
-        <f>0.605*149</f>
-        <v>90.144999999999996</v>
-      </c>
-      <c r="C97" s="5"/>
+        <f>0.605*22.6</f>
+        <v>13.673</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G97" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="H97" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -3318,27 +3341,29 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="9" t="s">
-        <v>81</v>
+    <row r="98" spans="1:17" ht="30.95">
+      <c r="A98" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="B98" s="6">
-        <f>0.605*5.59</f>
-        <v>3.3819499999999998</v>
-      </c>
-      <c r="C98" s="5"/>
+        <f>0.605*-1.81</f>
+        <v>-1.0950500000000001</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G98" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="H98" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -3350,27 +3375,29 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="9" t="s">
-        <v>96</v>
+    <row r="99" spans="1:17" ht="30.95">
+      <c r="A99" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B99" s="6">
-        <f>0.605*0.002</f>
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="C99" s="5"/>
+        <f>0.605*-11.6</f>
+        <v>-7.0179999999999998</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G99" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H99" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -3382,23 +3409,64 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="15.6">
+      <c r="A100" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="6">
+        <f>0.605*210</f>
+        <v>127.05</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+    <row r="101" spans="1:17" ht="15.6">
+      <c r="A101" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="6">
+        <f>0.605*0.031</f>
+        <v>1.8755000000000001E-2</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3409,19 +3477,28 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>36</v>
+    <row r="102" spans="1:17" ht="15.6">
+      <c r="A102" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="6">
+        <f>0.605*149</f>
+        <v>90.144999999999996</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3430,20 +3507,30 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>26</v>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="1:17" ht="15.6">
+      <c r="A103" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="6">
+        <f>0.605*5.59</f>
+        <v>3.3819499999999998</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3451,22 +3538,31 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
-      <c r="P103"/>
-      <c r="Q103"/>
-    </row>
-    <row r="104" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="5">
-        <v>1</v>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="1:17" ht="15.6">
+      <c r="A104" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="6">
+        <f>0.605*0.002</f>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3474,34 +3570,19 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-    </row>
-    <row r="106" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>38</v>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="1:17" ht="15.6">
+      <c r="P105" s="1"/>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="1:17" ht="15.6">
+      <c r="A106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3516,13 +3597,15 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
-    </row>
-    <row r="107" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P106" s="1"/>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A107" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3537,13 +3620,14 @@
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
-    </row>
-    <row r="108" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A108" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3558,12 +3642,16 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
-    </row>
-    <row r="109" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="5"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+    </row>
+    <row r="109" spans="1:17" ht="15.6">
+      <c r="A109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3578,80 +3666,40 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:17" ht="15.6">
+      <c r="A110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="1:17" ht="15.6">
+      <c r="A111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="str">
-        <f>B101</f>
-        <v>cyanex production</v>
-      </c>
-      <c r="B111" s="5">
-        <v>1</v>
-      </c>
-      <c r="C111" s="5" t="str">
-        <f>B103</f>
-        <v>RER</v>
-      </c>
-      <c r="D111" s="5" t="str">
-        <f>B108</f>
-        <v>kilogram</v>
-      </c>
+      <c r="B111" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="5" t="str">
-        <f>B106</f>
-        <v>cyanex</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -3659,30 +3707,19 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="2"/>
-    </row>
-    <row r="112" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" s="12">
-        <f>61.6/154</f>
-        <v>0.4</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15.6">
+      <c r="A112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -3691,33 +3728,20 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="2"/>
-    </row>
-    <row r="113" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="12">
-        <f>135/154</f>
-        <v>0.87662337662337664</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="113" spans="1:17" ht="15.6">
+      <c r="A113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -3726,6 +3750,173 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
+    <row r="114" spans="1:17" ht="15.6">
+      <c r="A114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+    </row>
+    <row r="115" spans="1:17" ht="15.6">
+      <c r="A115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15.6">
+      <c r="A116" s="5" t="str">
+        <f>B106</f>
+        <v>cyanex production</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="str">
+        <f>B108</f>
+        <v>RER</v>
+      </c>
+      <c r="D116" s="5" t="str">
+        <f>B113</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="5" t="str">
+        <f>B111</f>
+        <v>cyanex</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" ht="15.6">
+      <c r="A117" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" s="12">
+        <f>61.6/154</f>
+        <v>0.4</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="2"/>
+    </row>
+    <row r="118" spans="1:17" ht="15.6">
+      <c r="A118" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="12">
+        <f>135/154</f>
+        <v>0.87662337662337664</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
